--- a/data/all.xlsx
+++ b/data/all.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="494">
   <si>
     <t>ADEBAYO ROQEEB O.</t>
   </si>
@@ -1248,13 +1248,271 @@
   </si>
   <si>
     <t>jegedeoluwasegun12@gmail.com</t>
+  </si>
+  <si>
+    <t>Amzat Sheriff</t>
+  </si>
+  <si>
+    <t>Kunmiamzat1@gmail.com</t>
+  </si>
+  <si>
+    <t>Omowole Ayomide</t>
+  </si>
+  <si>
+    <t>omowoleayomide8@gmail.com</t>
+  </si>
+  <si>
+    <t>Olomo olutosin</t>
+  </si>
+  <si>
+    <t>olutosinolomo@gmail.com</t>
+  </si>
+  <si>
+    <t>Raheem Emmanuel Toluwanimi</t>
+  </si>
+  <si>
+    <t>eraheem572@stu.ui.edu.ng/raheememmaunel9@gmail.com</t>
+  </si>
+  <si>
+    <t>Adelaja Fredrick</t>
+  </si>
+  <si>
+    <t>fredrickadelaja@gmail.com</t>
+  </si>
+  <si>
+    <t>Oluwatimileyin Adebisi</t>
+  </si>
+  <si>
+    <t>samsonadebisioluwatimileyin@gmail.com</t>
+  </si>
+  <si>
+    <t>Jibril Maemunah Olateju</t>
+  </si>
+  <si>
+    <t>maemunaholateju@gmail.con</t>
+  </si>
+  <si>
+    <t>Ayodele pamilerin</t>
+  </si>
+  <si>
+    <t>ayodeles421@gmail.com</t>
+  </si>
+  <si>
+    <t>Kuforiji Hikmat Motunrayo</t>
+  </si>
+  <si>
+    <t>hikmatkuforiji@gmail.com</t>
+  </si>
+  <si>
+    <t>Akanbi Grace Oluwatomiisin</t>
+  </si>
+  <si>
+    <t>Oluwatomiisin.akanbi@gmail.com</t>
+  </si>
+  <si>
+    <t>Abdulkareem Ibrahim</t>
+  </si>
+  <si>
+    <t>iabdul-kareem518@stu.ui.edu</t>
+  </si>
+  <si>
+    <t>Olusanya Ayodotun Boluwatife</t>
+  </si>
+  <si>
+    <t>08188403039(whatsapp), 08135646899</t>
+  </si>
+  <si>
+    <t>aolusanya564@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Okerentugba Joseph Toriseju</t>
+  </si>
+  <si>
+    <t>jokerentugba558@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Obafemi Feranmi</t>
+  </si>
+  <si>
+    <t>obafemiferanmi1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Akinwale Comfort Oreoluwa</t>
+  </si>
+  <si>
+    <t>orecomfort04@gmail.com</t>
+  </si>
+  <si>
+    <t>Alade Taiwo</t>
+  </si>
+  <si>
+    <t>aladetaiwo19@gmail.com</t>
+  </si>
+  <si>
+    <t>Miteu Agape Justice</t>
+  </si>
+  <si>
+    <t>Miteuagape@gmail.com</t>
+  </si>
+  <si>
+    <t>Ukoh Nsikakabasi Enyeneokpon</t>
+  </si>
+  <si>
+    <t>ukohnsikakabasiunex@gmail.com</t>
+  </si>
+  <si>
+    <t>Precious Adetipe</t>
+  </si>
+  <si>
+    <t>padetipe527@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Ajao Precious Oluwafemi</t>
+  </si>
+  <si>
+    <t>pajao531@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Are Mubarak</t>
+  </si>
+  <si>
+    <t>mare540@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Adeyemi Quayum</t>
+  </si>
+  <si>
+    <t>adeyemiquayum08@gmail.com</t>
+  </si>
+  <si>
+    <t>Olinmah Faithful Chinedu</t>
+  </si>
+  <si>
+    <t>folinmah561@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Udoka Success chinasa</t>
+  </si>
+  <si>
+    <t>udokasuccess2020@gmail.com</t>
+  </si>
+  <si>
+    <t>Akanbi David Oluwabukunmi</t>
+  </si>
+  <si>
+    <t>davesoluwabukunmi@gmail.com</t>
+  </si>
+  <si>
+    <t>Adekanmbi Adeoluwa Samuel</t>
+  </si>
+  <si>
+    <t>adeoluwaadekanmbi@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayantosho Olayinka Saudat</t>
+  </si>
+  <si>
+    <t>oayantosho541@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Wisdom oluwasola</t>
+  </si>
+  <si>
+    <t>wisdomoluwasola@gmail.com</t>
+  </si>
+  <si>
+    <t>Oluremi Precious Busayo</t>
+  </si>
+  <si>
+    <t>preciousbusayo39@gmail.com</t>
+  </si>
+  <si>
+    <t>Oluwadunsin Animasaun</t>
+  </si>
+  <si>
+    <t>animasaun24@gmail.com</t>
+  </si>
+  <si>
+    <t>Okhaioisevai Adeoye</t>
+  </si>
+  <si>
+    <t>jarvelvai17@gmail.com</t>
+  </si>
+  <si>
+    <t>Olusesi Toluwanimi Aaron</t>
+  </si>
+  <si>
+    <t>olusesitoluwanimi1@gmail.com</t>
+  </si>
+  <si>
+    <t>Soyibo Jesutofunmi</t>
+  </si>
+  <si>
+    <t>jesutofunmisoyibo24@gmail.com</t>
+  </si>
+  <si>
+    <t>Ijide Otega</t>
+  </si>
+  <si>
+    <t>ijideotega1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Ogundeji Phoebe Omolara</t>
+  </si>
+  <si>
+    <t>pogundeji556@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Umoh Pius idaraobong</t>
+  </si>
+  <si>
+    <t>pumoh580@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Adekanbi Tobi</t>
+  </si>
+  <si>
+    <t>tadekanbi522@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Olakanmi Daniel Olatomiwa</t>
+  </si>
+  <si>
+    <t>olakanmidaniel2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Afia Joshua Aniekan</t>
+  </si>
+  <si>
+    <t>afiajoshua85@gmail.com</t>
+  </si>
+  <si>
+    <t>Adekunle abdulrosheed olaniyi</t>
+  </si>
+  <si>
+    <t>adekunleabdulrosheedolaniyi@gmail.com</t>
+  </si>
+  <si>
+    <t>Chukwuebuka Chikezie Victor</t>
+  </si>
+  <si>
+    <t>cchukwuebuka543@stu.ui.edu.ng</t>
+  </si>
+  <si>
+    <t>Omowole ayomide</t>
+  </si>
+  <si>
+    <t>Tahir Abdulmuizz Olawale</t>
+  </si>
+  <si>
+    <t>tahirabdulmuizzolawale@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1578,24 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1341,7 +1617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1349,13 +1625,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1388,11 +1681,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1670,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5398,7 +5707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="21">
         <v>224022</v>
       </c>
@@ -5415,6 +5724,926 @@
         <v>200</v>
       </c>
       <c r="F187" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="29">
+        <v>231538</v>
+      </c>
+      <c r="B188" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C188" s="28">
+        <v>8120060057</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E188" s="27">
+        <v>100</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="29">
+        <v>231568</v>
+      </c>
+      <c r="B189" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C189" s="28">
+        <v>8110824606</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="E189" s="27">
+        <v>100</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="29">
+        <v>231562</v>
+      </c>
+      <c r="B190" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C190" s="28">
+        <v>8126695389</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E190" s="27">
+        <v>100</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="29">
+        <v>231572</v>
+      </c>
+      <c r="B191" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C191" s="28">
+        <v>9061264214</v>
+      </c>
+      <c r="D191" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E191" s="27">
+        <v>100</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="29">
+        <v>231525</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C192" s="28">
+        <v>8028824691</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E192" s="27">
+        <v>100</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="29">
+        <v>231521</v>
+      </c>
+      <c r="B193" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C193" s="28">
+        <v>7011394443</v>
+      </c>
+      <c r="D193" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E193" s="27">
+        <v>100</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="29">
+        <v>231550</v>
+      </c>
+      <c r="B194" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" s="28">
+        <v>8078337922</v>
+      </c>
+      <c r="D194" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="E194" s="27">
+        <v>100</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="29">
+        <v>231542</v>
+      </c>
+      <c r="B195" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C195" s="28">
+        <v>8021260904</v>
+      </c>
+      <c r="D195" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E195" s="27">
+        <v>100</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="29">
+        <v>231552</v>
+      </c>
+      <c r="B196" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C196" s="28">
+        <v>8172798992</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E196" s="27">
+        <v>100</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="29">
+        <v>231533</v>
+      </c>
+      <c r="B197" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="28">
+        <v>9132221494</v>
+      </c>
+      <c r="D197" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="E197" s="27">
+        <v>100</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="29">
+        <v>231518</v>
+      </c>
+      <c r="B198" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C198" s="28">
+        <v>8100547452</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E198" s="27">
+        <v>100</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="29">
+        <v>231564</v>
+      </c>
+      <c r="B199" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E199" s="27">
+        <v>100</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="29">
+        <v>231518</v>
+      </c>
+      <c r="B200" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C200" s="28">
+        <v>8100547452</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E200" s="27">
+        <v>100</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="29">
+        <v>231558</v>
+      </c>
+      <c r="B201" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C201" s="28">
+        <v>8174141192</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E201" s="27">
+        <v>100</v>
+      </c>
+      <c r="F201" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="29">
+        <v>231554</v>
+      </c>
+      <c r="B202" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C202" s="29">
+        <v>7080291799</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E202" s="27">
+        <v>100</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="29">
+        <v>231536</v>
+      </c>
+      <c r="B203" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C203" s="28">
+        <v>8126777960</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="E203" s="27">
+        <v>100</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="29">
+        <v>231537</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="C204" s="28">
+        <v>8029892079</v>
+      </c>
+      <c r="D204" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="E204" s="27">
+        <v>100</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="29">
+        <v>231553</v>
+      </c>
+      <c r="B205" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="C205" s="28">
+        <v>8113367613</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="E205" s="27">
+        <v>100</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="29">
+        <v>231579</v>
+      </c>
+      <c r="B206" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C206" s="28">
+        <v>8128883012</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E206" s="27">
+        <v>100</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="29">
+        <v>231527</v>
+      </c>
+      <c r="B207" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C207" s="28">
+        <v>9081194117</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E207" s="27">
+        <v>100</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="29">
+        <v>231531</v>
+      </c>
+      <c r="B208" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C208" s="28">
+        <v>8116315495</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E208" s="27">
+        <v>100</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="29">
+        <v>231540</v>
+      </c>
+      <c r="B209" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C209" s="28">
+        <v>8027579038</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="E209" s="27">
+        <v>100</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="29">
+        <v>231528</v>
+      </c>
+      <c r="B210" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="C210" s="28">
+        <v>8119608057</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="E210" s="27">
+        <v>100</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="29">
+        <v>231561</v>
+      </c>
+      <c r="B211" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C211" s="28">
+        <v>9025160340</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E211" s="27">
+        <v>100</v>
+      </c>
+      <c r="F211" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="29">
+        <v>231578</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C212" s="28">
+        <v>9152882594</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E212" s="27">
+        <v>100</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="29">
+        <v>231532</v>
+      </c>
+      <c r="B213" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="C213" s="28">
+        <v>7053075941</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E213" s="27">
+        <v>100</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="29">
+        <v>231523</v>
+      </c>
+      <c r="B214" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C214" s="28">
+        <v>9028776449</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="E214" s="27">
+        <v>100</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="29">
+        <v>231541</v>
+      </c>
+      <c r="B215" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C215" s="28">
+        <v>9059980811</v>
+      </c>
+      <c r="D215" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="E215" s="27">
+        <v>100</v>
+      </c>
+      <c r="F215" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="29">
+        <v>231566</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C216" s="28">
+        <v>9042559298</v>
+      </c>
+      <c r="D216" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E216" s="27">
+        <v>100</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="29">
+        <v>231563</v>
+      </c>
+      <c r="B217" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C217" s="28">
+        <v>8122092833</v>
+      </c>
+      <c r="D217" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E217" s="27">
+        <v>100</v>
+      </c>
+      <c r="F217" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="29">
+        <v>231539</v>
+      </c>
+      <c r="B218" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C218" s="28">
+        <v>8110272896</v>
+      </c>
+      <c r="D218" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="E218" s="27">
+        <v>100</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="29">
+        <v>231526</v>
+      </c>
+      <c r="B219" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C219" s="28">
+        <v>8127543064</v>
+      </c>
+      <c r="D219" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="E219" s="27">
+        <v>100</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="29">
+        <v>231565</v>
+      </c>
+      <c r="B220" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C220" s="28">
+        <v>9025511626</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E220" s="27">
+        <v>100</v>
+      </c>
+      <c r="F220" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="29">
+        <v>231574</v>
+      </c>
+      <c r="B221" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C221" s="28">
+        <v>9124837346</v>
+      </c>
+      <c r="D221" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E221" s="27">
+        <v>100</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="29">
+        <v>231548</v>
+      </c>
+      <c r="B222" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C222" s="28">
+        <v>8168648498</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E222" s="27">
+        <v>100</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="29">
+        <v>231556</v>
+      </c>
+      <c r="B223" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C223" s="28">
+        <v>9065225675</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E223" s="27">
+        <v>100</v>
+      </c>
+      <c r="F223" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="29">
+        <v>231580</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C224" s="28">
+        <v>9029862300</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E224" s="27">
+        <v>100</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="29">
+        <v>231522</v>
+      </c>
+      <c r="B225" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C225" s="28">
+        <v>7015540292</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="E225" s="27">
+        <v>100</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="29">
+        <v>231560</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C226" s="28">
+        <v>9047859855</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="E226" s="27">
+        <v>100</v>
+      </c>
+      <c r="F226" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="29">
+        <v>231530</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="C227" s="28">
+        <v>9064984759</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="E227" s="27">
+        <v>100</v>
+      </c>
+      <c r="F227" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="29">
+        <v>231524</v>
+      </c>
+      <c r="B228" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="C228" s="28">
+        <v>9153004666</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E228" s="27">
+        <v>100</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="29">
+        <v>231543</v>
+      </c>
+      <c r="B229" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C229" s="28">
+        <v>9132301534</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="E229" s="27">
+        <v>100</v>
+      </c>
+      <c r="F229" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="29">
+        <v>231576</v>
+      </c>
+      <c r="B230" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C230" s="28">
+        <v>8153937334</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E230" s="27">
+        <v>100</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="26">
+        <v>231543</v>
+      </c>
+      <c r="B231" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C231" s="25">
+        <v>9132301534</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="E231" s="24">
+        <v>100</v>
+      </c>
+      <c r="F231" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="26">
+        <v>231568</v>
+      </c>
+      <c r="B232" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C232" s="25">
+        <v>8110824606</v>
+      </c>
+      <c r="D232" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E232" s="24">
+        <v>100</v>
+      </c>
+      <c r="F232" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="26">
+        <v>231576</v>
+      </c>
+      <c r="B233" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="C233" s="25">
+        <v>8153937334</v>
+      </c>
+      <c r="D233" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="E233" s="24">
+        <v>100</v>
+      </c>
+      <c r="F233" s="24" t="s">
         <v>3</v>
       </c>
     </row>
